--- a/Availability/september_CHRNE_HARP.xlsx
+++ b/Availability/september_CHRNE_HARP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE WFD 2020\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BBF633-8CC8-4277-AB51-B822FA304767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4340E5-9AE8-4A6E-A171-1233BFEC6BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="924" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,129 +20,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">What dates are NOT IDEAL (i.e. you have club meetings, organizational obligations, ect.) </t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/11/2021, 9/24/2021, 9/25/2021</t>
-  </si>
-  <si>
-    <t>9/10/2021, 9/26/2021</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/11/2021, 9/25/2021</t>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>bethanymarydavis@vt.edu</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>1/16/2022, 1/18/2022, 1/20/2022, 1/23/2022, 1/25/2022, 1/27/2022</t>
+  </si>
+  <si>
+    <t>caitlynrs237@vt.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caity </t>
+  </si>
+  <si>
+    <t>1/17/2022, 1/22/2022, 1/24/2022, 1/31/2022</t>
+  </si>
+  <si>
+    <t>kylepapili@vt.edu</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>1/21/2022</t>
+  </si>
+  <si>
+    <t>mryan20@vt.edu</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>1/20/2022</t>
+  </si>
+  <si>
+    <t>ssergey147@vt.edu</t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>1/15/2022, 1/26/2022</t>
+  </si>
+  <si>
+    <t>chartury23@vt.edu</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>1/28/2022, 1/29/2022</t>
+  </si>
+  <si>
+    <t>ncaro@vt.edu</t>
   </si>
   <si>
     <t>Nyla</t>
   </si>
   <si>
-    <t>9/2/2021, 9/3/2021, 9/11/2021, 9/17/2021, 9/18/2021, 9/19/2021, 9/20/2021, 9/25/2021</t>
-  </si>
-  <si>
-    <t>9/7/2021, 9/9/2021, 9/13/2021</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>9/4/2021, 9/11/2021, 9/18/2021, 9/25/2021</t>
-  </si>
-  <si>
-    <t>Sergey</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>9/23/2021</t>
-  </si>
-  <si>
-    <t>9/7/2021, 9/14/2021, 9/21/2021, 9/24/2021, 9/28/2021</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>9/4/2021, 9/5/2021, 9/6/2021, 9/7/2021, 9/8/2021, 9/9/2021, 9/10/2021, 9/11/2021, 9/12/2021, 9/13/2021</t>
-  </si>
-  <si>
-    <t>Caity</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/9/2021, 9/11/2021, 9/25/2021</t>
-  </si>
-  <si>
-    <t>9/16/2021, 9/23/2021</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>9/10/2021, 9/14/2021, 9/24/2021</t>
-  </si>
-  <si>
-    <t>9/6/2021, 9/9/2021, 9/13/2021, 9/20/2021, 9/23/2021, 9/27/2021</t>
+    <t>1/17/2022, 1/22/2022</t>
+  </si>
+  <si>
+    <t>zachlydens20@vt.edu</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>1/14/2022, 1/15/2022, 1/26/2022</t>
+  </si>
+  <si>
+    <t>dayanaj9642@vt.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayana </t>
+  </si>
+  <si>
+    <t>1/14/2022, 1/16/2022, 1/18/2022, 1/20/2022, 1/23/2022, 1/24/2022, 1/25/2022, 1/27/2022, 1/30/2022, 1/31/2022</t>
+  </si>
+  <si>
+    <t>hjayla@vt.edu</t>
+  </si>
+  <si>
+    <t>Jayla</t>
+  </si>
+  <si>
+    <t>1/16/2022, 1/20/2022</t>
+  </si>
+  <si>
+    <t>hez18@vt.edu</t>
+  </si>
+  <si>
+    <t>Hez</t>
+  </si>
+  <si>
+    <t>1/29/2022</t>
+  </si>
+  <si>
+    <t>illar@vt.edu</t>
+  </si>
+  <si>
+    <t>Illa</t>
+  </si>
+  <si>
+    <t>1/14/2022, 1/16/2022, 1/21/2022, 1/23/2022, 1/28/2022, 1/30/2022</t>
+  </si>
+  <si>
+    <t>annac23@vt.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna </t>
+  </si>
+  <si>
+    <t>1/16/2022</t>
+  </si>
+  <si>
+    <t>1/14/2022, 1/15/2022</t>
+  </si>
+  <si>
+    <t>David SRA</t>
   </si>
   <si>
     <t>Alex</t>
   </si>
   <si>
-    <t>9/3/2021, 9/11/2021, 9/18/2021, 9/25/2021</t>
-  </si>
-  <si>
-    <t>9/21/2021</t>
-  </si>
-  <si>
-    <t>9/2/2021, 9/9/2021, 9/16/2021, 9/23/2021, 9/30/2021</t>
-  </si>
-  <si>
-    <t>Jayla</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/9/2021, 9/10/2021, 9/17/2021, 9/18/2021, 9/19/2021</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/4/2021, 9/10/2021, 9/11/2021, 9/17/2021, 9/18/2021, 9/24/2021, 9/25/2021</t>
-  </si>
-  <si>
-    <t>9/13/2021, 9/23/2021, 9/26/2021, 9/27/2021, 9/29/2021, 9/30/2021</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/6/2021, 9/9/2021, 9/13/2021, 9/16/2021, 9/20/2021, 9/23/2021, 9/27/2021, 9/30/2021</t>
-  </si>
-  <si>
-    <t>Hez</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/11/2021, 9/22/2021, 9/23/2021, 9/25/2021, 9/29/2021</t>
-  </si>
-  <si>
-    <t>David SRA</t>
-  </si>
-  <si>
-    <t>Dayana</t>
-  </si>
-  <si>
-    <t>Illa</t>
-  </si>
-  <si>
-    <t>Zach</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Days</t>
-  </si>
-  <si>
-    <t>9/3/2021, 9/17/2021, 9/18/2021, 9/19/2021, 9/20/2021, 9/21/2021, 9/22/2021</t>
   </si>
 </sst>
 </file>
@@ -152,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,12 +177,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,15 +199,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -434,207 +442,213 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>44537.549472314815</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>44430.763301851854</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>44426.507497546292</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>44426.612309583332</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>44535.640058842589</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>44428.984657152774</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>44535.641460486113</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>44426.779995729172</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>44535.905353113427</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>44428.462694861111</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>44431.150707476852</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>44536.791750289354</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>44431.826928958333</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>44537.65078196759</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>44430.801108854168</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>44537.700834490737</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>44430.808241909719</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>44537.411832314814</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>44428.427574398149</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>44535.642698020834</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>44426.511760624999</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>44536.424836516206</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>44430.742387638893</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>44535.742005810185</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>44426.635552939813</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>44535.823752569442</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>44426.508129444446</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>44536.736761944441</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
-    <sortCondition ref="B1:B16"/>
+    <sortCondition ref="C2:C16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
